--- a/pred_ohlcv/54_21/2019-10-28 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 CON ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-1226629.0528</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1246924.2933</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1084890.7894</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-950730.0640999998</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-847528.6717999999</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2362863.7203</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2128577.4292</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1333776.070387156</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1333776.070387156</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1671413.396787156</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>681076.9761871563</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>896839.2822871563</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>955261.5912871563</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>784173.1057871563</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>784173.1057871563</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>497995.3020871563</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>402914.7816871563</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>648249.2675871566</v>
       </c>
       <c r="H791">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>648249.2675871566</v>
       </c>
       <c r="H792">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>65699.41208715667</v>
       </c>
       <c r="H793">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H794">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H795">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H796">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H797">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-43069.83901284331</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-162256.2015128433</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-152364.5916128433</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>240457.5199177873</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>140575.2904177873</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>140575.2904177873</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>500647.8403177873</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>511138.4533177873</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>511138.4533177873</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-3942744.800282212</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-4060275.475282212</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-4060275.475282212</v>
       </c>
       <c r="H1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-4269728.327382212</v>
       </c>
       <c r="H1046">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-3908034.390882212</v>
       </c>
       <c r="H1047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-3871741.167182212</v>
       </c>
       <c r="H1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-3871741.167182212</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-3780182.396282212</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-3769114.271482212</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-3769114.271482212</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 CON ohlcv.xlsx
@@ -2004,7 +2004,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1379720.3612</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1084890.7894</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-950730.0640999998</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>1123634.5727</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2362863.7203</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2347197.3987</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2128577.4292</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>1801479.2668</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1333776.070387156</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1333776.070387156</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1671413.396787156</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>681076.9761871563</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>928315.7864871563</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>896839.2822871563</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>670201.5830871563</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>955261.5912871563</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>963788.8870871563</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>784173.1057871563</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>784173.1057871563</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>497995.3020871563</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>402914.7816871563</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>787139.2943871564</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>648249.2675871566</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>648249.2675871566</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>65699.41208715667</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>75362.76758715668</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>108417.3218871567</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>125591.3090871567</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-43069.83901284331</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>166845.8182871567</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-16214.43501284331</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-162256.2015128433</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-152364.5916128433</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>240457.5199177873</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>240446.5199177873</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>140575.2904177873</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>529503.2079177874</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>2116.375317787402</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-2125632.894982212</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-2108343.641582212</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-2237906.129182212</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-2237906.129182212</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-2237906.129182212</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-2237906.129182212</v>
       </c>
       <c r="H1038">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27406,7 +27406,7 @@
         <v>-2519976.344982212</v>
       </c>
       <c r="H1039">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>-2751051.491482212</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>-3173564.276582212</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-3173564.276582212</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-3942744.800282212</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-4060275.475282212</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-4060275.475282212</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-4269728.327382212</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-3908034.390882212</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-3871741.167182212</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-3871741.167182212</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-3780182.396282212</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
